--- a/docss/trend/austria/E_ataxy.xlsx
+++ b/docss/trend/austria/E_ataxy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,16 +661,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
@@ -689,16 +689,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -773,16 +773,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
@@ -801,16 +801,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -857,16 +857,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
@@ -940,10 +940,18 @@
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="4">
+        <v>99</v>
+      </c>
+      <c r="D15" s="4">
+        <v>99</v>
+      </c>
+      <c r="E15" s="4">
+        <v>99</v>
+      </c>
+      <c r="F15" s="4">
+        <v>99</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -989,16 +997,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
@@ -1017,16 +1025,16 @@
         <v>22</v>
       </c>
       <c r="C18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
@@ -1045,16 +1053,16 @@
         <v>23</v>
       </c>
       <c r="C19" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D19" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E19" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F19" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
@@ -1128,6 +1136,18 @@
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C22" s="4">
+        <v>99</v>
+      </c>
+      <c r="D22" s="4">
+        <v>99</v>
+      </c>
+      <c r="E22" s="4">
+        <v>99</v>
+      </c>
+      <c r="F22" s="4">
+        <v>99</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1184,10 +1204,18 @@
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="C25" s="4">
+        <v>99</v>
+      </c>
+      <c r="D25" s="4">
+        <v>99</v>
+      </c>
+      <c r="E25" s="4">
+        <v>99</v>
+      </c>
+      <c r="F25" s="4">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1317,16 +1345,16 @@
         <v>36</v>
       </c>
       <c r="C32" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D32" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E32" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F32" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,16 +1365,16 @@
         <v>37</v>
       </c>
       <c r="C33" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D33" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E33" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F33" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,16 +1385,16 @@
         <v>38</v>
       </c>
       <c r="C34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,16 +1405,16 @@
         <v>39</v>
       </c>
       <c r="C35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1397,16 +1425,16 @@
         <v>40</v>
       </c>
       <c r="C36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,16 +1445,16 @@
         <v>41</v>
       </c>
       <c r="C37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,16 +1465,16 @@
         <v>42</v>
       </c>
       <c r="C38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,16 +1485,16 @@
         <v>43</v>
       </c>
       <c r="C39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,16 +1505,16 @@
         <v>44</v>
       </c>
       <c r="C40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,16 +1525,16 @@
         <v>45</v>
       </c>
       <c r="C41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1517,16 +1545,16 @@
         <v>46</v>
       </c>
       <c r="C42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1537,16 +1565,16 @@
         <v>47</v>
       </c>
       <c r="C43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,16 +1585,16 @@
         <v>48</v>
       </c>
       <c r="C44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,7 +1724,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1733,7 @@
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -1714,202 +1742,150 @@
       <c r="D1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>2002</v>
       </c>
-      <c r="B2" s="9">
-        <v>3.9826145395636559E-2</v>
-      </c>
-      <c r="C2" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D2" s="9">
-        <v>-99</v>
-      </c>
+      <c r="B2">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2003</v>
       </c>
-      <c r="B3" s="9">
-        <v>5.1317588426172733E-2</v>
-      </c>
-      <c r="C3" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D3" s="9">
-        <v>-99</v>
-      </c>
+      <c r="B3">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2004</v>
       </c>
-      <c r="B4" s="9">
-        <v>5.4646709933876991E-2</v>
-      </c>
-      <c r="C4" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D4" s="9">
-        <v>-99</v>
-      </c>
+      <c r="B4">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2005</v>
       </c>
-      <c r="B5" s="9">
-        <v>5.9736507013440132E-2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D5" s="9">
-        <v>-99</v>
-      </c>
+      <c r="B5">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2006</v>
       </c>
-      <c r="B6" s="9">
-        <v>1.0267015546560287E-2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D6" s="9">
-        <v>-99</v>
-      </c>
+      <c r="B6">
+        <v>1.03E-2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2007</v>
       </c>
-      <c r="B7" s="9">
-        <v>2.8962717391550541E-2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D7" s="9">
-        <v>-99</v>
-      </c>
+      <c r="B7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2008</v>
       </c>
-      <c r="B8" s="9">
-        <v>8.8424686342477798E-2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D8" s="9">
-        <v>-99</v>
-      </c>
+      <c r="B8">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2009</v>
       </c>
-      <c r="B9" s="9">
-        <v>5.1022118888795376E-2</v>
-      </c>
-      <c r="C9" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D9" s="9">
-        <v>-99</v>
-      </c>
+      <c r="B9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2010</v>
       </c>
-      <c r="B10" s="9">
-        <v>7.3689789511263371E-2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D10" s="9">
-        <v>-99</v>
-      </c>
+      <c r="B10">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2011</v>
       </c>
-      <c r="B11" s="9">
-        <v>3.1910521909594536E-2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D11" s="9">
-        <v>-99</v>
-      </c>
+      <c r="B11">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2012</v>
       </c>
-      <c r="B12" s="9">
-        <v>5.7231335900723934E-2</v>
-      </c>
-      <c r="C12" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D12" s="9">
-        <v>-99</v>
-      </c>
+      <c r="B12">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2013</v>
       </c>
-      <c r="B13" s="9">
-        <v>4.5565084554255009E-2</v>
-      </c>
-      <c r="C13" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D13" s="9">
-        <v>-99</v>
-      </c>
+      <c r="B13">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2014</v>
       </c>
-      <c r="B14" s="9">
-        <v>6.3879752997308969E-2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>-99</v>
-      </c>
-      <c r="D14" s="9">
-        <v>-99</v>
-      </c>
-      <c r="E14" s="8"/>
+      <c r="B14">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
